--- a/설계/DB/작업용/어류 데이터베이스.xlsx
+++ b/설계/DB/작업용/어류 데이터베이스.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FishDic\설계\DB\작업용\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE66D41-1180-40E9-8EFD-54560BA4DCFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B09C8D-E7DE-4258-B35F-85540CBFE5EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="2550" windowWidth="16875" windowHeight="13005" firstSheet="2" activeTab="3" xr2:uid="{452F07AA-5EAA-4817-B43C-48B61E7F79A8}"/>
+    <workbookView xWindow="12315" yWindow="735" windowWidth="16485" windowHeight="14865" firstSheet="2" activeTab="4" xr2:uid="{452F07AA-5EAA-4817-B43C-48B61E7F79A8}"/>
   </bookViews>
   <sheets>
     <sheet name="어류 테이블" sheetId="1" r:id="rId1"/>
@@ -44,11 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="459">
-  <si>
-    <t>이름(국명)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="458">
   <si>
     <t>학명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,9 +395,6 @@
   </si>
   <si>
     <t>온대성 어류로 주로 연안의 암초지대에 서식한다.</t>
-  </si>
-  <si>
-    <t>이름(국명)</t>
   </si>
   <si>
     <t>금지체장</t>
@@ -1554,6 +1547,10 @@
   </si>
   <si>
     <t>큰가리비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1685,9 +1682,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1707,6 +1701,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2026,1350 +2023,1350 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.25" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="149.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="215.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="7.25" style="5"/>
+    <col min="1" max="1" width="12.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="149.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="215.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="7.25" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>454</v>
+      <c r="C1" s="4" t="s">
+        <v>452</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>412</v>
+      <c r="H1" s="4" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2" t="s">
         <v>392</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G2" t="s">
         <v>394</v>
-      </c>
-      <c r="E2" t="s">
-        <v>395</v>
-      </c>
-      <c r="F2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G2" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" t="s">
         <v>356</v>
-      </c>
-      <c r="D3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E3" t="s">
-        <v>358</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" t="s">
         <v>207</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" t="s">
         <v>209</v>
-      </c>
-      <c r="E4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G4" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
         <v>76</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>77</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>78</v>
-      </c>
-      <c r="G5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" t="s">
+        <v>406</v>
+      </c>
+      <c r="F6" t="s">
         <v>245</v>
-      </c>
-      <c r="D6" t="s">
-        <v>246</v>
-      </c>
-      <c r="E6" t="s">
-        <v>408</v>
-      </c>
-      <c r="F6" t="s">
-        <v>247</v>
       </c>
       <c r="G6"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" t="s">
         <v>263</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>264</v>
       </c>
-      <c r="E7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F7" t="s">
-        <v>266</v>
-      </c>
       <c r="G7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D8" t="s">
         <v>298</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>297</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G8" t="s">
         <v>300</v>
-      </c>
-      <c r="E8" t="s">
-        <v>299</v>
-      </c>
-      <c r="F8" t="s">
-        <v>301</v>
-      </c>
-      <c r="G8" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" t="s">
+        <v>302</v>
+      </c>
+      <c r="E9" t="s">
+        <v>304</v>
+      </c>
+      <c r="F9" t="s">
         <v>303</v>
       </c>
-      <c r="D9" t="s">
-        <v>304</v>
-      </c>
-      <c r="E9" t="s">
-        <v>306</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>305</v>
-      </c>
-      <c r="G9" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D10" t="s">
+        <v>350</v>
+      </c>
+      <c r="E10" t="s">
         <v>351</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G10" t="s">
         <v>352</v>
-      </c>
-      <c r="E10" t="s">
-        <v>353</v>
-      </c>
-      <c r="F10" t="s">
-        <v>355</v>
-      </c>
-      <c r="G10" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" t="s">
         <v>220</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" t="s">
         <v>222</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>223</v>
-      </c>
-      <c r="F11" t="s">
-        <v>224</v>
-      </c>
-      <c r="G11" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E12" t="s">
         <v>258</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>259</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>260</v>
-      </c>
-      <c r="F12" t="s">
-        <v>261</v>
-      </c>
-      <c r="G12" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D13" t="s">
+        <v>269</v>
+      </c>
+      <c r="E13" t="s">
         <v>270</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>271</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>272</v>
-      </c>
-      <c r="F13" t="s">
-        <v>273</v>
-      </c>
-      <c r="G13" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" t="s">
         <v>275</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>276</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>277</v>
-      </c>
-      <c r="F14" t="s">
-        <v>278</v>
-      </c>
-      <c r="G14" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B15" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E15" t="s">
         <v>280</v>
       </c>
-      <c r="D15" t="s">
-        <v>281</v>
-      </c>
-      <c r="E15" t="s">
-        <v>282</v>
-      </c>
       <c r="F15" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" t="s">
         <v>187</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" t="s">
         <v>189</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>190</v>
-      </c>
-      <c r="F16" t="s">
-        <v>191</v>
-      </c>
-      <c r="G16" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" t="s">
         <v>213</v>
       </c>
-      <c r="D17" t="s">
-        <v>215</v>
-      </c>
       <c r="E17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18" t="s">
+        <v>404</v>
+      </c>
+      <c r="F18" t="s">
         <v>232</v>
       </c>
-      <c r="D18" t="s">
-        <v>233</v>
-      </c>
-      <c r="E18" t="s">
-        <v>406</v>
-      </c>
-      <c r="F18" t="s">
-        <v>234</v>
-      </c>
       <c r="G18" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
+        <v>357</v>
+      </c>
+      <c r="D19" t="s">
+        <v>402</v>
+      </c>
+      <c r="E19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F19" t="s">
+        <v>358</v>
+      </c>
+      <c r="G19" t="s">
         <v>359</v>
-      </c>
-      <c r="D19" t="s">
-        <v>404</v>
-      </c>
-      <c r="E19" t="s">
-        <v>409</v>
-      </c>
-      <c r="F19" t="s">
-        <v>360</v>
-      </c>
-      <c r="G19" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
+        <v>373</v>
+      </c>
+      <c r="D20" t="s">
+        <v>374</v>
+      </c>
+      <c r="E20" t="s">
         <v>375</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>376</v>
-      </c>
-      <c r="E20" t="s">
-        <v>377</v>
-      </c>
-      <c r="F20" t="s">
-        <v>378</v>
       </c>
       <c r="G20"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" t="s">
         <v>103</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>104</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>105</v>
-      </c>
-      <c r="G21" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" t="s">
         <v>182</v>
-      </c>
-      <c r="D22" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22" t="s">
-        <v>185</v>
-      </c>
-      <c r="F22" t="s">
-        <v>186</v>
-      </c>
-      <c r="G22" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
+        <v>310</v>
+      </c>
+      <c r="D23" t="s">
+        <v>311</v>
+      </c>
+      <c r="E23" t="s">
         <v>312</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>313</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>314</v>
-      </c>
-      <c r="F23" t="s">
-        <v>315</v>
-      </c>
-      <c r="G23" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
+        <v>339</v>
+      </c>
+      <c r="D24" t="s">
+        <v>340</v>
+      </c>
+      <c r="E24" t="s">
         <v>341</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>342</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>343</v>
-      </c>
-      <c r="F24" t="s">
-        <v>344</v>
-      </c>
-      <c r="G24" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
+        <v>344</v>
+      </c>
+      <c r="D25" t="s">
+        <v>345</v>
+      </c>
+      <c r="E25" t="s">
         <v>346</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>347</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>348</v>
-      </c>
-      <c r="F25" t="s">
-        <v>349</v>
-      </c>
-      <c r="G25" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" t="s">
         <v>71</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>72</v>
-      </c>
-      <c r="G26" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" t="s">
         <v>82</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>83</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>84</v>
-      </c>
-      <c r="G27" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
         <v>86</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" t="s">
         <v>87</v>
       </c>
-      <c r="E28" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>88</v>
-      </c>
-      <c r="G28" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
         <v>90</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>91</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>92</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>93</v>
-      </c>
-      <c r="G29" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
         <v>96</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>97</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>98</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>99</v>
-      </c>
-      <c r="G30" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" t="s">
         <v>107</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>108</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>109</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>110</v>
-      </c>
-      <c r="G31" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" t="s">
         <v>119</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>120</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>121</v>
-      </c>
-      <c r="F32" t="s">
-        <v>122</v>
-      </c>
-      <c r="G32" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" t="s">
         <v>124</v>
       </c>
-      <c r="D33" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" t="s">
-        <v>127</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>126</v>
-      </c>
-      <c r="G33" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" t="s">
         <v>129</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>130</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>131</v>
-      </c>
-      <c r="F34" t="s">
-        <v>132</v>
-      </c>
-      <c r="G34" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" t="s">
         <v>134</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>135</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>136</v>
-      </c>
-      <c r="F35" t="s">
-        <v>137</v>
-      </c>
-      <c r="G35" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" t="s">
         <v>140</v>
       </c>
-      <c r="D36" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>141</v>
-      </c>
-      <c r="F36" t="s">
-        <v>142</v>
-      </c>
-      <c r="G36" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" t="s">
         <v>144</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>145</v>
-      </c>
-      <c r="E37" t="s">
-        <v>146</v>
-      </c>
-      <c r="F37" t="s">
-        <v>147</v>
       </c>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" t="s">
         <v>148</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>149</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>150</v>
-      </c>
-      <c r="F38" t="s">
-        <v>151</v>
-      </c>
-      <c r="G38" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" t="s">
         <v>153</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" t="s">
         <v>154</v>
-      </c>
-      <c r="E39" t="s">
-        <v>155</v>
-      </c>
-      <c r="F39" t="s">
-        <v>122</v>
-      </c>
-      <c r="G39" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" t="s">
         <v>157</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
         <v>158</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>159</v>
-      </c>
-      <c r="F40" t="s">
-        <v>160</v>
-      </c>
-      <c r="G40" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" t="s">
         <v>162</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>163</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>164</v>
-      </c>
-      <c r="F41" t="s">
-        <v>165</v>
-      </c>
-      <c r="G41" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" t="s">
         <v>167</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>168</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>169</v>
-      </c>
-      <c r="F42" t="s">
-        <v>170</v>
-      </c>
-      <c r="G42" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" t="s">
         <v>172</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
+        <v>174</v>
+      </c>
+      <c r="G43" t="s">
         <v>173</v>
-      </c>
-      <c r="E43" t="s">
-        <v>174</v>
-      </c>
-      <c r="F43" t="s">
-        <v>176</v>
-      </c>
-      <c r="G43" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" t="s">
         <v>177</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>176</v>
+      </c>
+      <c r="F44" t="s">
         <v>179</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>178</v>
-      </c>
-      <c r="F44" t="s">
-        <v>181</v>
-      </c>
-      <c r="G44" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" t="s">
         <v>193</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>194</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
         <v>195</v>
-      </c>
-      <c r="F45" t="s">
-        <v>196</v>
-      </c>
-      <c r="G45" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
+        <v>196</v>
+      </c>
+      <c r="D46" t="s">
+        <v>197</v>
+      </c>
+      <c r="E46" t="s">
+        <v>215</v>
+      </c>
+      <c r="F46" t="s">
         <v>198</v>
       </c>
-      <c r="D46" t="s">
+      <c r="G46" t="s">
         <v>199</v>
-      </c>
-      <c r="E46" t="s">
-        <v>217</v>
-      </c>
-      <c r="F46" t="s">
-        <v>200</v>
-      </c>
-      <c r="G46" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" t="s">
+        <v>201</v>
+      </c>
+      <c r="E47" t="s">
         <v>202</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>203</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
         <v>204</v>
-      </c>
-      <c r="F47" t="s">
-        <v>205</v>
-      </c>
-      <c r="G47" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" t="s">
+        <v>233</v>
+      </c>
+      <c r="D48" t="s">
+        <v>234</v>
+      </c>
+      <c r="E48" t="s">
         <v>235</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
+        <v>237</v>
+      </c>
+      <c r="G48" t="s">
         <v>236</v>
-      </c>
-      <c r="E48" t="s">
-        <v>237</v>
-      </c>
-      <c r="F48" t="s">
-        <v>239</v>
-      </c>
-      <c r="G48" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" t="s">
+        <v>239</v>
+      </c>
+      <c r="E49" t="s">
         <v>240</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
+        <v>242</v>
+      </c>
+      <c r="G49" t="s">
         <v>241</v>
-      </c>
-      <c r="E49" t="s">
-        <v>242</v>
-      </c>
-      <c r="F49" t="s">
-        <v>244</v>
-      </c>
-      <c r="G49" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" t="s">
+        <v>247</v>
+      </c>
+      <c r="E50" t="s">
         <v>248</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
         <v>249</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
         <v>250</v>
-      </c>
-      <c r="F50" t="s">
-        <v>251</v>
-      </c>
-      <c r="G50" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
+        <v>281</v>
+      </c>
+      <c r="D51" t="s">
+        <v>282</v>
+      </c>
+      <c r="E51" t="s">
         <v>283</v>
       </c>
-      <c r="D51" t="s">
+      <c r="F51" t="s">
         <v>284</v>
       </c>
-      <c r="E51" t="s">
+      <c r="G51" t="s">
         <v>285</v>
-      </c>
-      <c r="F51" t="s">
-        <v>286</v>
-      </c>
-      <c r="G51" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
+        <v>286</v>
+      </c>
+      <c r="D52" t="s">
+        <v>287</v>
+      </c>
+      <c r="E52" t="s">
         <v>288</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
         <v>289</v>
       </c>
-      <c r="E52" t="s">
+      <c r="G52" t="s">
         <v>290</v>
-      </c>
-      <c r="F52" t="s">
-        <v>291</v>
-      </c>
-      <c r="G52" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
+        <v>291</v>
+      </c>
+      <c r="D53" t="s">
+        <v>292</v>
+      </c>
+      <c r="E53" t="s">
         <v>293</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>294</v>
       </c>
-      <c r="E53" t="s">
-        <v>295</v>
-      </c>
-      <c r="F53" t="s">
-        <v>296</v>
-      </c>
       <c r="G53" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
+        <v>306</v>
+      </c>
+      <c r="D54" t="s">
+        <v>307</v>
+      </c>
+      <c r="E54" t="s">
         <v>308</v>
       </c>
-      <c r="D54" t="s">
+      <c r="F54" t="s">
+        <v>401</v>
+      </c>
+      <c r="G54" t="s">
         <v>309</v>
-      </c>
-      <c r="E54" t="s">
-        <v>310</v>
-      </c>
-      <c r="F54" t="s">
-        <v>403</v>
-      </c>
-      <c r="G54" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
+        <v>320</v>
+      </c>
+      <c r="D55" t="s">
+        <v>321</v>
+      </c>
+      <c r="E55" t="s">
         <v>322</v>
       </c>
-      <c r="D55" t="s">
+      <c r="F55" t="s">
+        <v>255</v>
+      </c>
+      <c r="G55" t="s">
         <v>323</v>
-      </c>
-      <c r="E55" t="s">
-        <v>324</v>
-      </c>
-      <c r="F55" t="s">
-        <v>257</v>
-      </c>
-      <c r="G55" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
+        <v>360</v>
+      </c>
+      <c r="D56" t="s">
+        <v>361</v>
+      </c>
+      <c r="E56" t="s">
         <v>362</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
         <v>363</v>
       </c>
-      <c r="E56" t="s">
+      <c r="G56" t="s">
         <v>364</v>
-      </c>
-      <c r="F56" t="s">
-        <v>365</v>
-      </c>
-      <c r="G56" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
+        <v>377</v>
+      </c>
+      <c r="D57" t="s">
+        <v>378</v>
+      </c>
+      <c r="E57" t="s">
         <v>379</v>
       </c>
-      <c r="D57" t="s">
+      <c r="F57" t="s">
+        <v>381</v>
+      </c>
+      <c r="G57" t="s">
         <v>380</v>
-      </c>
-      <c r="E57" t="s">
-        <v>381</v>
-      </c>
-      <c r="F57" t="s">
-        <v>383</v>
-      </c>
-      <c r="G57" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B58" t="s">
+        <v>224</v>
+      </c>
+      <c r="D58" t="s">
         <v>226</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
+        <v>227</v>
+      </c>
+      <c r="F58" t="s">
+        <v>229</v>
+      </c>
+      <c r="G58" t="s">
         <v>228</v>
-      </c>
-      <c r="E58" t="s">
-        <v>229</v>
-      </c>
-      <c r="F58" t="s">
-        <v>231</v>
-      </c>
-      <c r="G58" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B59" t="s">
+        <v>251</v>
+      </c>
+      <c r="D59" t="s">
+        <v>252</v>
+      </c>
+      <c r="E59" t="s">
         <v>253</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
+        <v>255</v>
+      </c>
+      <c r="G59" t="s">
         <v>254</v>
-      </c>
-      <c r="E59" t="s">
-        <v>255</v>
-      </c>
-      <c r="F59" t="s">
-        <v>257</v>
-      </c>
-      <c r="G59" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
+        <v>315</v>
+      </c>
+      <c r="D60" t="s">
+        <v>316</v>
+      </c>
+      <c r="E60" t="s">
+        <v>318</v>
+      </c>
+      <c r="F60" t="s">
         <v>317</v>
       </c>
-      <c r="D60" t="s">
-        <v>318</v>
-      </c>
-      <c r="E60" t="s">
-        <v>320</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>319</v>
-      </c>
-      <c r="G60" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
+        <v>325</v>
+      </c>
+      <c r="D61" t="s">
+        <v>324</v>
+      </c>
+      <c r="E61" t="s">
         <v>327</v>
       </c>
-      <c r="D61" t="s">
-        <v>326</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
+        <v>328</v>
+      </c>
+      <c r="G61" t="s">
         <v>329</v>
-      </c>
-      <c r="F61" t="s">
-        <v>330</v>
-      </c>
-      <c r="G61" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
+        <v>330</v>
+      </c>
+      <c r="D62" t="s">
+        <v>331</v>
+      </c>
+      <c r="E62" t="s">
         <v>332</v>
       </c>
-      <c r="D62" t="s">
+      <c r="F62" t="s">
+        <v>328</v>
+      </c>
+      <c r="G62" t="s">
         <v>333</v>
-      </c>
-      <c r="E62" t="s">
-        <v>334</v>
-      </c>
-      <c r="F62" t="s">
-        <v>330</v>
-      </c>
-      <c r="G62" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
+        <v>334</v>
+      </c>
+      <c r="D63" t="s">
+        <v>335</v>
+      </c>
+      <c r="E63" t="s">
         <v>336</v>
       </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
         <v>337</v>
       </c>
-      <c r="E63" t="s">
+      <c r="G63" t="s">
         <v>338</v>
-      </c>
-      <c r="F63" t="s">
-        <v>339</v>
-      </c>
-      <c r="G63" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D64" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E64" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F64"/>
       <c r="G64" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
+        <v>369</v>
+      </c>
+      <c r="D65" t="s">
+        <v>370</v>
+      </c>
+      <c r="E65" t="s">
         <v>371</v>
-      </c>
-      <c r="D65" t="s">
-        <v>372</v>
-      </c>
-      <c r="E65" t="s">
-        <v>373</v>
       </c>
       <c r="F65"/>
       <c r="G65" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>382</v>
+      </c>
+      <c r="D66" t="s">
+        <v>383</v>
+      </c>
+      <c r="E66" t="s">
         <v>384</v>
       </c>
-      <c r="D66" t="s">
+      <c r="F66" t="s">
+        <v>386</v>
+      </c>
+      <c r="G66" t="s">
         <v>385</v>
-      </c>
-      <c r="E66" t="s">
-        <v>386</v>
-      </c>
-      <c r="F66" t="s">
-        <v>388</v>
-      </c>
-      <c r="G66" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D67" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E67" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -3388,7 +3385,7 @@
   <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3398,539 +3395,539 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
+      <c r="A1" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -3948,8 +3945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C086C4B5-20B2-46D0-A0EB-C416BC74F84E}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3961,478 +3958,478 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B26" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B46" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -4451,8 +4448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16E1E9C-FCDE-47C6-9B5D-6A4BC307443A}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4462,16 +4459,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>421</v>
+      <c r="A1" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4479,7 +4476,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4487,7 +4484,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4495,7 +4492,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4503,7 +4500,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4511,7 +4508,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4519,7 +4516,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -4527,7 +4524,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4535,7 +4532,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4543,7 +4540,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4551,7 +4548,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4559,7 +4556,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -4567,7 +4564,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B14">
         <v>11</v>
@@ -4575,7 +4572,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -4583,7 +4580,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -4591,7 +4588,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>14</v>
@@ -4599,7 +4596,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>15</v>
@@ -4607,7 +4604,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -4615,7 +4612,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -4623,7 +4620,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21">
         <v>18</v>
@@ -4631,7 +4628,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -4639,7 +4636,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -4647,7 +4644,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>21</v>
@@ -4655,7 +4652,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25">
         <v>22</v>
@@ -4663,7 +4660,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26">
         <v>23</v>
@@ -4671,7 +4668,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>24</v>
@@ -4679,7 +4676,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>25</v>
@@ -4687,7 +4684,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29">
         <v>26</v>
@@ -4695,7 +4692,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>27</v>
@@ -4703,7 +4700,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31">
         <v>28</v>
@@ -4711,7 +4708,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32">
         <v>29</v>
@@ -4719,7 +4716,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>30</v>
@@ -4727,7 +4724,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34">
         <v>31</v>
@@ -4735,7 +4732,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35">
         <v>32</v>
@@ -4743,7 +4740,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>33</v>
@@ -4751,7 +4748,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>34</v>
@@ -4759,7 +4756,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38">
         <v>35</v>
@@ -4767,7 +4764,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>36</v>
@@ -4775,7 +4772,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40">
         <v>37</v>
@@ -4783,7 +4780,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41">
         <v>38</v>
@@ -4791,7 +4788,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>39</v>
@@ -4799,7 +4796,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43">
         <v>40</v>
@@ -4807,7 +4804,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44">
         <v>41</v>
@@ -4815,7 +4812,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B45">
         <v>42</v>
@@ -4823,7 +4820,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B46">
         <v>42</v>
@@ -4831,7 +4828,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B47">
         <v>42</v>
@@ -4839,7 +4836,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48">
         <v>43</v>
@@ -4847,7 +4844,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49">
         <v>44</v>
@@ -4855,7 +4852,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>45</v>
@@ -4863,7 +4860,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51">
         <v>46</v>
@@ -4871,7 +4868,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B52">
         <v>47</v>
@@ -4879,7 +4876,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53">
         <v>48</v>
@@ -4887,7 +4884,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54">
         <v>49</v>
@@ -4895,7 +4892,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B55">
         <v>50</v>
@@ -4903,7 +4900,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56">
         <v>51</v>
@@ -4921,8 +4918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDB54CC-A3E3-4D0D-BE00-BC95561308CD}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4935,16 +4932,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4952,12 +4949,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C2" s="9">
+        <v>417</v>
+      </c>
+      <c r="C2" s="8">
         <v>44287</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>44347</v>
       </c>
     </row>
@@ -4966,12 +4963,12 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C3" s="9">
+        <v>420</v>
+      </c>
+      <c r="C3" s="8">
         <v>44287</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>44408</v>
       </c>
     </row>
@@ -4980,12 +4977,12 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>415</v>
-      </c>
-      <c r="C4" s="9">
+        <v>413</v>
+      </c>
+      <c r="C4" s="8">
         <v>44348</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>44387</v>
       </c>
     </row>
@@ -4994,12 +4991,12 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>423</v>
-      </c>
-      <c r="C5" s="9">
+        <v>421</v>
+      </c>
+      <c r="C5" s="8">
         <v>44317</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>44392</v>
       </c>
     </row>
@@ -5008,12 +5005,12 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>424</v>
-      </c>
-      <c r="C6" s="9">
+        <v>422</v>
+      </c>
+      <c r="C6" s="8">
         <v>44348</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>44469</v>
       </c>
     </row>
@@ -5022,12 +5019,12 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>413</v>
-      </c>
-      <c r="C7" s="9">
+        <v>411</v>
+      </c>
+      <c r="C7" s="8">
         <v>44378</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>44439</v>
       </c>
     </row>
@@ -5036,12 +5033,12 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>417</v>
-      </c>
-      <c r="C8" s="9">
+        <v>415</v>
+      </c>
+      <c r="C8" s="8">
         <v>44348</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>44469</v>
       </c>
     </row>
@@ -5050,12 +5047,12 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>418</v>
-      </c>
-      <c r="C9" s="9">
+        <v>416</v>
+      </c>
+      <c r="C9" s="8">
         <v>44308</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>44418</v>
       </c>
     </row>
@@ -5064,12 +5061,12 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>425</v>
-      </c>
-      <c r="C10" s="9">
+        <v>423</v>
+      </c>
+      <c r="C10" s="8">
         <v>44348</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>44439</v>
       </c>
     </row>
@@ -5078,12 +5075,12 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>414</v>
-      </c>
-      <c r="C11" s="9">
+        <v>412</v>
+      </c>
+      <c r="C11" s="8">
         <v>44440</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>44530</v>
       </c>
     </row>
@@ -5092,12 +5089,12 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>414</v>
-      </c>
-      <c r="C12" s="9">
+        <v>412</v>
+      </c>
+      <c r="C12" s="8">
         <v>44470</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>44561</v>
       </c>
     </row>
@@ -5106,12 +5103,12 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>416</v>
-      </c>
-      <c r="C13" s="9">
+        <v>414</v>
+      </c>
+      <c r="C13" s="8">
         <v>44378</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>44469</v>
       </c>
     </row>
@@ -5119,10 +5116,10 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>44256</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>44377</v>
       </c>
     </row>
@@ -5130,10 +5127,10 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>44378</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>44408</v>
       </c>
     </row>
@@ -5141,10 +5138,10 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>44317</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>44347</v>
       </c>
     </row>
@@ -5152,10 +5149,10 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>44317</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>44408</v>
       </c>
     </row>
@@ -5163,10 +5160,10 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>44501</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>44592</v>
       </c>
     </row>
@@ -5174,10 +5171,10 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>44378</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>44439</v>
       </c>
     </row>
@@ -5185,10 +5182,10 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>44287</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>44377</v>
       </c>
     </row>
@@ -5196,10 +5193,10 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>44317</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>44408</v>
       </c>
     </row>
@@ -5207,10 +5204,10 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>44368</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>44428</v>
       </c>
     </row>
@@ -5218,10 +5215,10 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>44348</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>44377</v>
       </c>
     </row>
@@ -5229,10 +5226,10 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>44378</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>44439</v>
       </c>
     </row>
@@ -5240,10 +5237,10 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>44348</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>44530</v>
       </c>
     </row>
@@ -5251,10 +5248,10 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>44212</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>44242</v>
       </c>
     </row>
@@ -5262,10 +5259,10 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>44317</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>44377</v>
       </c>
     </row>
@@ -5273,10 +5270,10 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>44317</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>44408</v>
       </c>
     </row>
@@ -5284,10 +5281,10 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>44470</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>44681</v>
       </c>
     </row>
@@ -5295,10 +5292,10 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>44409</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>44469</v>
       </c>
     </row>
@@ -5306,10 +5303,10 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>44317</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>44408</v>
       </c>
     </row>
@@ -5317,10 +5314,10 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>44197</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>44561</v>
       </c>
     </row>
@@ -5328,10 +5325,10 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>44531</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>44592</v>
       </c>
     </row>
@@ -5339,10 +5336,10 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <v>44378</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>44428</v>
       </c>
     </row>
@@ -5350,10 +5347,10 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <v>44387</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>44433</v>
       </c>
     </row>
@@ -5361,10 +5358,10 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <v>44287</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>44347</v>
       </c>
     </row>
@@ -5372,10 +5369,10 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <v>44317</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>44347</v>
       </c>
     </row>
@@ -5383,10 +5380,10 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <v>44363</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>44469</v>
       </c>
     </row>
@@ -5394,10 +5391,10 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>44470</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>44530</v>
       </c>
     </row>
@@ -5405,10 +5402,10 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <v>44378</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>44439</v>
       </c>
     </row>
@@ -5416,10 +5413,10 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>44398</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>44428</v>
       </c>
     </row>
@@ -5427,10 +5424,10 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <v>44501</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8">
         <v>44681</v>
       </c>
     </row>
@@ -5438,10 +5435,10 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>44440</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="8">
         <v>44500</v>
       </c>
     </row>
@@ -5449,10 +5446,10 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>44327</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="8">
         <v>44439</v>
       </c>
     </row>
@@ -5460,10 +5457,10 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>44501</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="8">
         <v>44561</v>
       </c>
     </row>
@@ -5471,10 +5468,10 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>44332</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <v>44377</v>
       </c>
     </row>
@@ -5482,10 +5479,10 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>44378</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="8">
         <v>44408</v>
       </c>
     </row>
@@ -5493,10 +5490,10 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="8">
         <v>44348</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="8">
         <v>44392</v>
       </c>
     </row>
@@ -5504,10 +5501,10 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>44378</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="8">
         <v>44439</v>
       </c>
     </row>
@@ -5515,10 +5512,10 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <v>44470</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="8">
         <v>44592</v>
       </c>
     </row>
@@ -5526,10 +5523,10 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>44348</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="8">
         <v>44439</v>
       </c>
     </row>
@@ -5537,10 +5534,10 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="8">
         <v>44378</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="8">
         <v>44408</v>
       </c>
     </row>
